--- a/analysis/checklist_app_sec.xlsx
+++ b/analysis/checklist_app_sec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" state="visible" r:id="rId3"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="757">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -1260,16 +1260,10 @@
     <t xml:space="preserve">Verify that all untrusted HTML input from WYSIWYG editors or similar is properly sanitized with an HTML sanitizer library or framework feature. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid??</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that unstructured data is sanitized to enforce safety measures such as allowed characters and length.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizamos o request de forma a contornar esta vulnerabilidade</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the application sanitizes user input before passing to mail systems to protect against SMTP or IMAP injection.</t>
@@ -1346,9 +1340,6 @@
     <t xml:space="preserve">Verify that context-aware, preferably automated - or at worst, manual - output escaping protects against reflected, stored, and DOM based XSS. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Applicable ??</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.3.4</t>
   </si>
   <si>
@@ -1367,18 +1358,23 @@
     <t xml:space="preserve">Verify that the application protects against JavaScript or JSON injection attacks, including for eval attacks, remote JavaScript includes, Content Security Policy (CSP) bypasses, DOM XSS, and JavaScript expression evaluation. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t xml:space="preserve">    let html = "";
+    var userInput = $("#search").val();
+    var sanitizedUserInput = $("&lt;div&gt;").text(userInput).html();
+    $("#search_result").html(
+      "Search results for: &lt;strong&gt;" + sanitizedUserInput + "&lt;/strong&gt;"
+    );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case we sanitize user input that is then displayed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.3.7</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the application protects against LDAP injection vulnerabilities, or that specific security controls to prevent LDAP injection have been implemented. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Applicable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não usamos LDAP servers</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.3.8</t>
   </si>
   <si>
@@ -1391,18 +1387,12 @@
     <t xml:space="preserve">Verify that the application protects against Local File Inclusion (LFI) or Remote File Inclusion (RFI) attacks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Not necessary to insert files</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.3.10</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the application protects against XPath injection or XML injection attacks. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t xml:space="preserve">Database interactions without involving XPath queries or direct XML processing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memory, String and Unmanaged Code Requirements</t>
   </si>
   <si>
@@ -1431,9 +1421,6 @@
   </si>
   <si>
     <t xml:space="preserve">Verify that serialized objects use integrity checks or are encrypted to prevent hostile object creation or data tampering. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To fix: Digital Signatures or Message Authentication Codes (MACs), Encryption of Serialized Data.</t>
   </si>
   <si>
     <t xml:space="preserve">5.5.2</t>
@@ -3167,7 +3154,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="147">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3564,15 +3551,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3580,43 +3591,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3660,10 +3639,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3681,6 +3656,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4010,7 +3989,7 @@
                   <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.5555555555556</c:v>
+                  <c:v>72.2222222222222</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -4034,19 +4013,19 @@
                   <c:v>38.4615384615385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54</c:v>
+                  <c:v>57.1428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65676677"/>
-        <c:axId val="26775548"/>
+        <c:axId val="30417430"/>
+        <c:axId val="60947789"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="65676677"/>
+        <c:axId val="30417430"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4084,7 +4063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26775548"/>
+        <c:crossAx val="60947789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4092,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26775548"/>
+        <c:axId val="60947789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4135,7 +4114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65676677"/>
+        <c:crossAx val="30417430"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4199,9 +4178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4210,7 +4189,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13680" y="4572720"/>
-        <a:ext cx="10967760" cy="9332280"/>
+        <a:ext cx="10967400" cy="9331920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4336,7 +4315,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6373,7 +6352,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6391,10 +6370,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -6406,28 +6385,28 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>563</v>
+        <v>556</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>557</v>
       </c>
       <c r="C2" s="95" t="n">
         <v>1</v>
@@ -6435,23 +6414,23 @@
       <c r="D2" s="48" t="n">
         <v>319</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>163</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J2" s="96"/>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>566</v>
+      <c r="B3" s="106" t="s">
+        <v>560</v>
       </c>
       <c r="C3" s="97" t="n">
         <v>1</v>
@@ -6459,23 +6438,23 @@
       <c r="D3" s="16" t="n">
         <v>326</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>568</v>
+      <c r="B4" s="106" t="s">
+        <v>562</v>
       </c>
       <c r="C4" s="97" t="n">
         <v>1</v>
@@ -6483,35 +6462,35 @@
       <c r="D4" s="16" t="n">
         <v>326</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" s="108" t="n">
+        <v>564</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>295</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
@@ -6522,18 +6501,18 @@
     </row>
     <row r="6" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>573</v>
-      </c>
-      <c r="C6" s="108" t="n">
+      <c r="B6" s="106" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="16" t="n">
         <v>319</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -6544,18 +6523,18 @@
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>575</v>
-      </c>
-      <c r="C7" s="108" t="n">
+      <c r="B7" s="106" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="n">
         <v>287</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -6566,18 +6545,18 @@
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>577</v>
-      </c>
-      <c r="C8" s="108" t="n">
+      <c r="B8" s="106" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="n">
         <v>299</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -6588,18 +6567,18 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="124" t="n">
+      <c r="B9" s="106" t="s">
+        <v>573</v>
+      </c>
+      <c r="C9" s="121" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>544</v>
       </c>
-      <c r="E9" s="125"/>
+      <c r="E9" s="122"/>
       <c r="F9" s="83" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
@@ -6636,7 +6615,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6654,10 +6633,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -6669,38 +6648,38 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="127" t="s">
-        <v>581</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="128" t="n">
+      <c r="A2" s="124" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="125" t="n">
         <v>3</v>
       </c>
       <c r="D2" s="48" t="n">
         <v>749</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>13</v>
@@ -6711,20 +6690,20 @@
     </row>
     <row r="3" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>585</v>
-      </c>
-      <c r="C3" s="108" t="n">
+        <v>578</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>359</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>13</v>
@@ -6735,18 +6714,18 @@
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>587</v>
-      </c>
-      <c r="C4" s="108" t="n">
+      <c r="B4" s="106" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="n">
         <v>272</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
@@ -6757,18 +6736,18 @@
     </row>
     <row r="5" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
-      <c r="B5" s="101" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" s="113" t="n">
+      <c r="B5" s="106" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>507</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
@@ -6779,18 +6758,18 @@
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="113" t="n">
+      <c r="B6" s="106" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="n">
         <v>511</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -6801,18 +6780,18 @@
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="113" t="n">
+      <c r="B7" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="C7" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="16" t="n">
         <v>511</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -6823,18 +6802,18 @@
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>595</v>
-      </c>
-      <c r="C8" s="113" t="n">
+      <c r="B8" s="106" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="16" t="n">
         <v>507</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -6845,10 +6824,10 @@
     </row>
     <row r="9" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="B9" s="101" t="s">
-        <v>598</v>
+        <v>591</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>592</v>
       </c>
       <c r="C9" s="97" t="n">
         <v>1</v>
@@ -6856,9 +6835,9 @@
       <c r="D9" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
@@ -6869,8 +6848,8 @@
     </row>
     <row r="10" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>600</v>
+      <c r="B10" s="106" t="s">
+        <v>594</v>
       </c>
       <c r="C10" s="97" t="n">
         <v>1</v>
@@ -6878,9 +6857,9 @@
       <c r="D10" s="16" t="n">
         <v>353</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="75" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
@@ -6891,10 +6870,10 @@
     </row>
     <row r="11" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
-      <c r="B11" s="101" t="s">
-        <v>602</v>
-      </c>
-      <c r="C11" s="109" t="n">
+      <c r="B11" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" s="126" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="23" t="n">
@@ -6902,7 +6881,7 @@
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="83" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
@@ -6939,7 +6918,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6957,10 +6936,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -6972,28 +6951,28 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>604</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>605</v>
+        <v>598</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>599</v>
       </c>
       <c r="C2" s="95" t="n">
         <v>1</v>
@@ -7001,9 +6980,9 @@
       <c r="D2" s="48" t="n">
         <v>841</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>6</v>
@@ -7014,8 +6993,8 @@
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>607</v>
+      <c r="B3" s="106" t="s">
+        <v>601</v>
       </c>
       <c r="C3" s="97" t="n">
         <v>1</v>
@@ -7023,9 +7002,9 @@
       <c r="D3" s="16" t="n">
         <v>799</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>6</v>
@@ -7036,8 +7015,8 @@
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>609</v>
+      <c r="B4" s="106" t="s">
+        <v>603</v>
       </c>
       <c r="C4" s="97" t="n">
         <v>1</v>
@@ -7045,23 +7024,23 @@
       <c r="D4" s="16" t="n">
         <v>770</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="J4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
-      <c r="B5" s="101" t="s">
-        <v>612</v>
+      <c r="B5" s="106" t="s">
+        <v>606</v>
       </c>
       <c r="C5" s="97" t="n">
         <v>1</v>
@@ -7071,21 +7050,21 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="75" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="J5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>615</v>
+      <c r="B6" s="106" t="s">
+        <v>609</v>
       </c>
       <c r="C6" s="97" t="n">
         <v>1</v>
@@ -7095,7 +7074,7 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="75" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>6</v>
@@ -7106,10 +7085,10 @@
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>617</v>
-      </c>
-      <c r="C7" s="108" t="n">
+      <c r="B7" s="106" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="16" t="n">
@@ -7117,7 +7096,7 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="75" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -7128,10 +7107,10 @@
     </row>
     <row r="8" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>619</v>
-      </c>
-      <c r="C8" s="108" t="n">
+      <c r="B8" s="106" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="n">
@@ -7139,7 +7118,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="75" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -7150,8 +7129,8 @@
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>621</v>
+      <c r="B9" s="106" t="s">
+        <v>615</v>
       </c>
       <c r="C9" s="98" t="n">
         <v>2</v>
@@ -7161,7 +7140,7 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="83" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
@@ -7197,7 +7176,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7215,10 +7194,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -7230,28 +7209,28 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>623</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>624</v>
+        <v>617</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>618</v>
       </c>
       <c r="C2" s="95" t="n">
         <v>1</v>
@@ -7259,9 +7238,9 @@
       <c r="D2" s="48" t="n">
         <v>400</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>13</v>
@@ -7272,18 +7251,18 @@
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>626</v>
-      </c>
-      <c r="C3" s="108" t="n">
+      <c r="B3" s="106" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>409</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>13</v>
@@ -7294,18 +7273,18 @@
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>628</v>
-      </c>
-      <c r="C4" s="108" t="n">
+      <c r="B4" s="106" t="s">
+        <v>622</v>
+      </c>
+      <c r="C4" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="n">
         <v>770</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
@@ -7316,20 +7295,20 @@
     </row>
     <row r="5" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" s="108" t="n">
+        <v>624</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>434</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
@@ -7340,10 +7319,10 @@
     </row>
     <row r="6" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>634</v>
+        <v>627</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>628</v>
       </c>
       <c r="C6" s="97" t="n">
         <v>1</v>
@@ -7351,9 +7330,9 @@
       <c r="D6" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -7364,8 +7343,8 @@
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>636</v>
+      <c r="B7" s="106" t="s">
+        <v>630</v>
       </c>
       <c r="C7" s="97" t="n">
         <v>1</v>
@@ -7373,9 +7352,9 @@
       <c r="D7" s="16" t="n">
         <v>73</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -7386,8 +7365,8 @@
     </row>
     <row r="8" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>638</v>
+      <c r="B8" s="106" t="s">
+        <v>632</v>
       </c>
       <c r="C8" s="97" t="n">
         <v>1</v>
@@ -7395,9 +7374,9 @@
       <c r="D8" s="16" t="n">
         <v>98</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -7408,8 +7387,8 @@
     </row>
     <row r="9" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>640</v>
+      <c r="B9" s="106" t="s">
+        <v>634</v>
       </c>
       <c r="C9" s="97" t="n">
         <v>1</v>
@@ -7417,9 +7396,9 @@
       <c r="D9" s="16" t="n">
         <v>641</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
@@ -7430,8 +7409,8 @@
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>642</v>
+      <c r="B10" s="106" t="s">
+        <v>636</v>
       </c>
       <c r="C10" s="97" t="n">
         <v>1</v>
@@ -7439,9 +7418,9 @@
       <c r="D10" s="16" t="n">
         <v>78</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="75" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
@@ -7452,10 +7431,10 @@
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
-      <c r="B11" s="101" t="s">
-        <v>644</v>
-      </c>
-      <c r="C11" s="108" t="n">
+      <c r="B11" s="106" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="n">
@@ -7463,7 +7442,7 @@
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="75" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
@@ -7474,10 +7453,10 @@
     </row>
     <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>646</v>
-      </c>
-      <c r="B12" s="101" t="s">
-        <v>647</v>
+        <v>640</v>
+      </c>
+      <c r="B12" s="106" t="s">
+        <v>641</v>
       </c>
       <c r="C12" s="97" t="n">
         <v>1</v>
@@ -7487,7 +7466,7 @@
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="75" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
@@ -7498,8 +7477,8 @@
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
-      <c r="B13" s="101" t="s">
-        <v>649</v>
+      <c r="B13" s="106" t="s">
+        <v>643</v>
       </c>
       <c r="C13" s="97" t="n">
         <v>1</v>
@@ -7509,7 +7488,7 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="75" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
@@ -7520,10 +7499,10 @@
     </row>
     <row r="14" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>652</v>
+        <v>645</v>
+      </c>
+      <c r="B14" s="106" t="s">
+        <v>646</v>
       </c>
       <c r="C14" s="97" t="n">
         <v>1</v>
@@ -7533,7 +7512,7 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="75" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
@@ -7544,8 +7523,8 @@
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
-      <c r="B15" s="101" t="s">
-        <v>654</v>
+      <c r="B15" s="106" t="s">
+        <v>648</v>
       </c>
       <c r="C15" s="97" t="n">
         <v>1</v>
@@ -7555,7 +7534,7 @@
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="75" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
@@ -7566,12 +7545,12 @@
     </row>
     <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>656</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>657</v>
-      </c>
-      <c r="C16" s="109" t="n">
+        <v>650</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>651</v>
+      </c>
+      <c r="C16" s="126" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="23" t="n">
@@ -7579,7 +7558,7 @@
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="83" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>13</v>
@@ -7618,7 +7597,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7635,10 +7614,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -7650,28 +7629,28 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>660</v>
+        <v>653</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>654</v>
       </c>
       <c r="C2" s="95" t="n">
         <v>1</v>
@@ -7679,9 +7658,9 @@
       <c r="D2" s="48" t="n">
         <v>116</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>13</v>
@@ -7692,8 +7671,8 @@
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>662</v>
+      <c r="B3" s="106" t="s">
+        <v>656</v>
       </c>
       <c r="C3" s="97" t="n">
         <v>1</v>
@@ -7701,9 +7680,9 @@
       <c r="D3" s="16" t="n">
         <v>419</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>6</v>
@@ -7714,8 +7693,8 @@
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>664</v>
+      <c r="B4" s="106" t="s">
+        <v>658</v>
       </c>
       <c r="C4" s="97" t="n">
         <v>1</v>
@@ -7723,9 +7702,9 @@
       <c r="D4" s="16" t="n">
         <v>598</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>6</v>
@@ -7736,18 +7715,18 @@
     </row>
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
-      <c r="B5" s="101" t="s">
-        <v>666</v>
-      </c>
-      <c r="C5" s="108" t="n">
+      <c r="B5" s="106" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>285</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
@@ -7758,18 +7737,18 @@
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>668</v>
-      </c>
-      <c r="C6" s="108" t="n">
+      <c r="B6" s="106" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="16" t="n">
         <v>434</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -7780,10 +7759,10 @@
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>670</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>671</v>
+        <v>664</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>665</v>
       </c>
       <c r="C7" s="97" t="n">
         <v>1</v>
@@ -7791,16 +7770,16 @@
       <c r="D7" s="16" t="n">
         <v>650</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>377</v>
@@ -7808,8 +7787,8 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>674</v>
+      <c r="B8" s="106" t="s">
+        <v>668</v>
       </c>
       <c r="C8" s="97" t="n">
         <v>1</v>
@@ -7817,9 +7796,9 @@
       <c r="D8" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -7830,8 +7809,8 @@
     </row>
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>676</v>
+      <c r="B9" s="106" t="s">
+        <v>670</v>
       </c>
       <c r="C9" s="97" t="n">
         <v>1</v>
@@ -7839,16 +7818,16 @@
       <c r="D9" s="16" t="n">
         <v>352</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>377</v>
@@ -7856,18 +7835,18 @@
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>679</v>
-      </c>
-      <c r="C10" s="108" t="n">
+      <c r="B10" s="106" t="s">
+        <v>673</v>
+      </c>
+      <c r="C10" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="n">
         <v>770</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="75" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
@@ -7878,18 +7857,18 @@
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
-      <c r="B11" s="101" t="s">
-        <v>681</v>
-      </c>
-      <c r="C11" s="108" t="n">
+      <c r="B11" s="106" t="s">
+        <v>675</v>
+      </c>
+      <c r="C11" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="n">
         <v>436</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="75" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
@@ -7900,18 +7879,18 @@
     </row>
     <row r="12" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
-      <c r="B12" s="101" t="s">
-        <v>683</v>
-      </c>
-      <c r="C12" s="108" t="n">
+      <c r="B12" s="106" t="s">
+        <v>677</v>
+      </c>
+      <c r="C12" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="16" t="n">
         <v>345</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="75" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
@@ -7922,10 +7901,10 @@
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>685</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>686</v>
+        <v>679</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>680</v>
       </c>
       <c r="C13" s="97" t="n">
         <v>1</v>
@@ -7933,9 +7912,9 @@
       <c r="D13" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="75" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
@@ -7946,18 +7925,18 @@
     </row>
     <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
-      <c r="B14" s="101" t="s">
-        <v>688</v>
-      </c>
-      <c r="C14" s="108" t="n">
+      <c r="B14" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="C14" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="n">
         <v>345</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="75" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
@@ -7968,20 +7947,20 @@
     </row>
     <row r="15" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>691</v>
-      </c>
-      <c r="C15" s="108" t="n">
+        <v>684</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>685</v>
+      </c>
+      <c r="C15" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="n">
         <v>770</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="75" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
@@ -7992,8 +7971,8 @@
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
-      <c r="B16" s="101" t="s">
-        <v>693</v>
+      <c r="B16" s="106" t="s">
+        <v>687</v>
       </c>
       <c r="C16" s="98" t="n">
         <v>2</v>
@@ -8001,9 +7980,9 @@
       <c r="D16" s="23" t="n">
         <v>285</v>
       </c>
-      <c r="E16" s="125"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="83" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
@@ -8042,7 +8021,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8058,616 +8037,616 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="114" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="128" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>690</v>
+      </c>
+      <c r="C2" s="130" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132" t="s">
+        <v>691</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="134"/>
+    </row>
+    <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="128"/>
+      <c r="B3" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="136" t="n">
+        <v>120</v>
+      </c>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137" t="s">
+        <v>693</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
+    </row>
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="128"/>
+      <c r="B4" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="135" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="136" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="136"/>
+      <c r="F4" s="137" t="s">
         <v>695</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="G4" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="139"/>
+    </row>
+    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="128"/>
+      <c r="B5" s="45" t="s">
         <v>696</v>
       </c>
-      <c r="C2" s="132" t="n">
+      <c r="C5" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="137" t="s">
         <v>697</v>
       </c>
-      <c r="G2" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
-    </row>
-    <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="130"/>
-      <c r="B3" s="45" t="s">
+      <c r="G5" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="128"/>
+      <c r="B6" s="45" t="s">
         <v>698</v>
       </c>
-      <c r="C3" s="137" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="138" t="n">
-        <v>120</v>
-      </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139" t="s">
+      <c r="C6" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="137" t="s">
         <v>699</v>
       </c>
-      <c r="G3" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
-    </row>
-    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="130"/>
-      <c r="B4" s="45" t="s">
-        <v>700</v>
-      </c>
-      <c r="C4" s="137" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="138" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139" t="s">
-        <v>701</v>
-      </c>
-      <c r="G4" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="141"/>
-    </row>
-    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="130"/>
-      <c r="B5" s="45" t="s">
-        <v>702</v>
-      </c>
-      <c r="C5" s="137" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139" t="s">
-        <v>703</v>
-      </c>
-      <c r="G5" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
-    </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="130"/>
-      <c r="B6" s="45" t="s">
-        <v>704</v>
-      </c>
-      <c r="C6" s="142" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139" t="s">
-        <v>705</v>
-      </c>
-      <c r="G6" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="G6" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="139"/>
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="143" t="n">
+        <v>701</v>
+      </c>
+      <c r="C7" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="138" t="n">
+      <c r="D7" s="136" t="n">
         <v>1026</v>
       </c>
-      <c r="E7" s="138"/>
-      <c r="F7" s="139" t="s">
-        <v>708</v>
-      </c>
-      <c r="G7" s="140" t="s">
+      <c r="E7" s="136"/>
+      <c r="F7" s="137" t="s">
+        <v>702</v>
+      </c>
+      <c r="G7" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140" t="s">
-        <v>709</v>
-      </c>
-      <c r="J7" s="141"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138" t="s">
+        <v>703</v>
+      </c>
+      <c r="J7" s="139"/>
     </row>
     <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
       <c r="B8" s="45" t="s">
-        <v>710</v>
-      </c>
-      <c r="C8" s="143" t="n">
+        <v>704</v>
+      </c>
+      <c r="C8" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="138" t="n">
+      <c r="D8" s="136" t="n">
         <v>1002</v>
       </c>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139" t="s">
-        <v>711</v>
-      </c>
-      <c r="G8" s="140" t="s">
+      <c r="E8" s="136"/>
+      <c r="F8" s="137" t="s">
+        <v>705</v>
+      </c>
+      <c r="G8" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140" t="s">
-        <v>712</v>
-      </c>
-      <c r="J8" s="141"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138" t="s">
+        <v>706</v>
+      </c>
+      <c r="J8" s="139"/>
     </row>
     <row r="9" customFormat="false" ht="96.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="45" t="s">
-        <v>713</v>
-      </c>
-      <c r="C9" s="143" t="n">
+        <v>707</v>
+      </c>
+      <c r="C9" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="138" t="n">
+      <c r="D9" s="136" t="n">
         <v>829</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139" t="s">
-        <v>714</v>
-      </c>
-      <c r="G9" s="140" t="s">
+      <c r="E9" s="136"/>
+      <c r="F9" s="137" t="s">
+        <v>708</v>
+      </c>
+      <c r="G9" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="140" t="s">
-        <v>715</v>
-      </c>
-      <c r="I9" s="140" t="s">
-        <v>716</v>
-      </c>
-      <c r="J9" s="141" t="s">
-        <v>717</v>
+      <c r="H9" s="138" t="s">
+        <v>709</v>
+      </c>
+      <c r="I9" s="138" t="s">
+        <v>710</v>
+      </c>
+      <c r="J9" s="139" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="45" t="s">
-        <v>718</v>
-      </c>
-      <c r="C10" s="137" t="n">
+        <v>712</v>
+      </c>
+      <c r="C10" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="D10" s="138" t="n">
+      <c r="D10" s="136" t="n">
         <v>829</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139" t="s">
-        <v>719</v>
-      </c>
-      <c r="G10" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137" t="s">
+        <v>713</v>
+      </c>
+      <c r="G10" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>720</v>
-      </c>
-      <c r="C11" s="137" t="n">
+        <v>714</v>
+      </c>
+      <c r="C11" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139" t="s">
-        <v>721</v>
-      </c>
-      <c r="G11" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137" t="s">
+        <v>715</v>
+      </c>
+      <c r="G11" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
       <c r="B12" s="45" t="s">
-        <v>722</v>
-      </c>
-      <c r="C12" s="137" t="n">
+        <v>716</v>
+      </c>
+      <c r="C12" s="135" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="138" t="n">
+      <c r="D12" s="136" t="n">
         <v>265</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139" t="s">
-        <v>723</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137" t="s">
+        <v>717</v>
+      </c>
+      <c r="G12" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="C13" s="143" t="n">
+        <v>719</v>
+      </c>
+      <c r="C13" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="138" t="n">
+      <c r="D13" s="136" t="n">
         <v>209</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139" t="s">
-        <v>726</v>
-      </c>
-      <c r="G13" s="140" t="s">
+      <c r="E13" s="136"/>
+      <c r="F13" s="137" t="s">
+        <v>720</v>
+      </c>
+      <c r="G13" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140" t="s">
-        <v>727</v>
-      </c>
-      <c r="J13" s="141"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138" t="s">
+        <v>721</v>
+      </c>
+      <c r="J13" s="139"/>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="45" t="s">
-        <v>728</v>
-      </c>
-      <c r="C14" s="143" t="n">
+        <v>722</v>
+      </c>
+      <c r="C14" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="138" t="n">
+      <c r="D14" s="136" t="n">
         <v>497</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139" t="s">
-        <v>729</v>
-      </c>
-      <c r="G14" s="140" t="s">
+      <c r="E14" s="136"/>
+      <c r="F14" s="137" t="s">
+        <v>723</v>
+      </c>
+      <c r="G14" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
       <c r="B15" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="C15" s="143" t="n">
+        <v>724</v>
+      </c>
+      <c r="C15" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="138" t="n">
+      <c r="D15" s="136" t="n">
         <v>200</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139" t="s">
-        <v>731</v>
-      </c>
-      <c r="G15" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="137" t="s">
+        <v>725</v>
+      </c>
+      <c r="G15" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>733</v>
-      </c>
-      <c r="C16" s="143" t="n">
+        <v>727</v>
+      </c>
+      <c r="C16" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="138" t="n">
+      <c r="D16" s="136" t="n">
         <v>173</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139" t="s">
-        <v>734</v>
-      </c>
-      <c r="G16" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="137" t="s">
+        <v>728</v>
+      </c>
+      <c r="G16" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139"/>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="45" t="s">
-        <v>735</v>
-      </c>
-      <c r="C17" s="143" t="n">
+        <v>729</v>
+      </c>
+      <c r="C17" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="138" t="n">
+      <c r="D17" s="136" t="n">
         <v>116</v>
       </c>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139" t="s">
-        <v>736</v>
-      </c>
-      <c r="G17" s="140" t="s">
+      <c r="E17" s="136"/>
+      <c r="F17" s="137" t="s">
+        <v>730</v>
+      </c>
+      <c r="G17" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
       <c r="B18" s="45" t="s">
-        <v>737</v>
-      </c>
-      <c r="C18" s="143" t="n">
+        <v>731</v>
+      </c>
+      <c r="C18" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="138" t="n">
+      <c r="D18" s="136" t="n">
         <v>1021</v>
       </c>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139" t="s">
-        <v>738</v>
-      </c>
-      <c r="G18" s="140" t="s">
+      <c r="E18" s="136"/>
+      <c r="F18" s="137" t="s">
+        <v>732</v>
+      </c>
+      <c r="G18" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140" t="s">
-        <v>739</v>
-      </c>
-      <c r="J18" s="141" t="s">
+      <c r="H18" s="138"/>
+      <c r="I18" s="138" t="s">
+        <v>733</v>
+      </c>
+      <c r="J18" s="139" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44"/>
       <c r="B19" s="45" t="s">
-        <v>740</v>
-      </c>
-      <c r="C19" s="143" t="n">
+        <v>734</v>
+      </c>
+      <c r="C19" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="138" t="n">
+      <c r="D19" s="136" t="n">
         <v>116</v>
       </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139" t="s">
-        <v>741</v>
-      </c>
-      <c r="G19" s="140" t="s">
+      <c r="E19" s="136"/>
+      <c r="F19" s="137" t="s">
+        <v>735</v>
+      </c>
+      <c r="G19" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="C20" s="143" t="n">
+        <v>736</v>
+      </c>
+      <c r="C20" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="138" t="n">
+      <c r="D20" s="136" t="n">
         <v>523</v>
       </c>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139" t="s">
-        <v>743</v>
-      </c>
-      <c r="G20" s="140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140" t="s">
-        <v>744</v>
-      </c>
-      <c r="J20" s="141"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="137" t="s">
+        <v>737</v>
+      </c>
+      <c r="G20" s="138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138" t="s">
+        <v>738</v>
+      </c>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="44"/>
       <c r="B21" s="45" t="s">
-        <v>745</v>
-      </c>
-      <c r="C21" s="143" t="n">
+        <v>739</v>
+      </c>
+      <c r="C21" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="138" t="n">
+      <c r="D21" s="136" t="n">
         <v>116</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139" t="s">
-        <v>746</v>
-      </c>
-      <c r="G21" s="140" t="s">
+      <c r="E21" s="136"/>
+      <c r="F21" s="137" t="s">
+        <v>740</v>
+      </c>
+      <c r="G21" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="140" t="s">
-        <v>747</v>
-      </c>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="H21" s="138" t="s">
+        <v>741</v>
+      </c>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C22" s="143" t="n">
+        <v>742</v>
+      </c>
+      <c r="C22" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="138" t="n">
+      <c r="D22" s="136" t="n">
         <v>346</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139" t="s">
-        <v>749</v>
-      </c>
-      <c r="G22" s="140" t="s">
+      <c r="E22" s="136"/>
+      <c r="F22" s="137" t="s">
+        <v>743</v>
+      </c>
+      <c r="G22" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="140" t="s">
-        <v>750</v>
-      </c>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
+      <c r="H22" s="138" t="s">
+        <v>744</v>
+      </c>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="C23" s="143" t="n">
+        <v>746</v>
+      </c>
+      <c r="C23" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="138" t="n">
+      <c r="D23" s="136" t="n">
         <v>749</v>
       </c>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139" t="s">
-        <v>753</v>
-      </c>
-      <c r="G23" s="140" t="s">
+      <c r="E23" s="136"/>
+      <c r="F23" s="137" t="s">
+        <v>747</v>
+      </c>
+      <c r="G23" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140" t="s">
-        <v>754</v>
-      </c>
-      <c r="J23" s="141"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138" t="s">
+        <v>748</v>
+      </c>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44"/>
       <c r="B24" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="C24" s="143" t="n">
+        <v>749</v>
+      </c>
+      <c r="C24" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="138" t="n">
+      <c r="D24" s="136" t="n">
         <v>346</v>
       </c>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139" t="s">
-        <v>756</v>
-      </c>
-      <c r="G24" s="140" t="s">
+      <c r="E24" s="136"/>
+      <c r="F24" s="137" t="s">
+        <v>750</v>
+      </c>
+      <c r="G24" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140" t="s">
-        <v>757</v>
-      </c>
-      <c r="J24" s="141"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138" t="s">
+        <v>751</v>
+      </c>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44"/>
       <c r="B25" s="45" t="s">
-        <v>758</v>
-      </c>
-      <c r="C25" s="143" t="n">
+        <v>752</v>
+      </c>
+      <c r="C25" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="138" t="n">
+      <c r="D25" s="136" t="n">
         <v>346</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139" t="s">
-        <v>759</v>
-      </c>
-      <c r="G25" s="140" t="s">
+      <c r="E25" s="136"/>
+      <c r="F25" s="137" t="s">
+        <v>753</v>
+      </c>
+      <c r="G25" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140" t="s">
-        <v>760</v>
-      </c>
-      <c r="J25" s="141"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138" t="s">
+        <v>754</v>
+      </c>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44"/>
       <c r="B26" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="C26" s="144" t="n">
+        <v>755</v>
+      </c>
+      <c r="C26" s="142" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="145" t="n">
+      <c r="D26" s="143" t="n">
         <v>306</v>
       </c>
-      <c r="E26" s="145"/>
-      <c r="F26" s="146" t="s">
-        <v>762</v>
-      </c>
-      <c r="G26" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144" t="s">
+        <v>756</v>
+      </c>
+      <c r="G26" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8700,7 +8679,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -9828,15 +9807,15 @@
       </c>
       <c r="B6" s="32" t="n">
         <f aca="false">COUNTIF('Input Validation'!G2:G31,"Valid")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="33" t="n">
         <f aca="false">COUNTIF('Input Validation'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" s="34" t="n">
         <f aca="false">(B6/C6)*100</f>
-        <v>55.5555555555556</v>
+        <v>72.2222222222222</v>
       </c>
       <c r="E6" s="35"/>
     </row>
@@ -10009,15 +9988,15 @@
       </c>
       <c r="B16" s="32" t="n">
         <f aca="false">SUM(B2:B15)</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="33" t="n">
         <f aca="false">SUM(C2:C15)</f>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D16" s="34" t="n">
         <f aca="false">(B16/C16)*100</f>
-        <v>54</v>
+        <v>57.1428571428571</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -10040,8 +10019,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12575,7 +12554,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -13213,8 +13192,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13531,28 +13510,28 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="22.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="8.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="60" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="60.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="41.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="14" width="29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="14" width="8.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="43" customFormat="true" ht="33.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -13564,19 +13543,19 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13584,476 +13563,480 @@
       <c r="A2" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="95" t="n">
+      <c r="C2" s="46" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="47" t="n">
         <v>235</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="103"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="104"/>
-    </row>
-    <row r="3" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="101"/>
+    </row>
+    <row r="3" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C3" s="97" t="n">
+      <c r="C3" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="54" t="n">
         <v>915</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="106"/>
+      <c r="G3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="75"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="107"/>
-    </row>
-    <row r="4" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="102"/>
+    </row>
+    <row r="4" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="97" t="n">
+      <c r="C4" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="54" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="106"/>
+      <c r="G4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="75"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="107"/>
-    </row>
-    <row r="5" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="97" t="n">
+      <c r="C5" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="54" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="106"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="107"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="C6" s="97" t="n">
+      <c r="C6" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="54" t="n">
         <v>601</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="106"/>
+      <c r="G6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="75"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="107"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="97" t="n">
+      <c r="C7" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="54" t="n">
         <v>116</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="107"/>
-    </row>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="97" t="n">
+      <c r="C8" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="54" t="n">
         <v>138</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="75" t="s">
-        <v>401</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="97" t="n">
+      <c r="C9" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="54" t="n">
         <v>147</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="G9" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="102"/>
+    </row>
+    <row r="10" customFormat="false" ht="48.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="97" t="n">
+      <c r="B10" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="54" t="n">
         <v>95</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="75" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="106"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="107"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="97" t="n">
+      <c r="C11" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="54" t="n">
         <v>94</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="75" t="s">
-        <v>406</v>
-      </c>
-      <c r="G11" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="106"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="107"/>
-    </row>
-    <row r="12" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="102"/>
+    </row>
+    <row r="12" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="97" t="n">
+      <c r="C12" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="54" t="n">
         <v>918</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="75" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="106"/>
+        <v>405</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="75"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="107"/>
-    </row>
-    <row r="13" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" customFormat="false" ht="48.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
-      <c r="B13" s="101" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="97" t="n">
+      <c r="B13" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="54" t="n">
         <v>159</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="75" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="106"/>
+        <v>407</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="75"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="107"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="97" t="n">
+      <c r="C14" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="54" t="n">
         <v>94</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="75" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="106"/>
+        <v>408</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="75"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="107"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="97" t="n">
+        <v>409</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="54" t="n">
         <v>116</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="75" t="s">
-        <v>413</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="106"/>
+        <v>411</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="75"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="107"/>
-    </row>
-    <row r="16" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="102"/>
+    </row>
+    <row r="16" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
-      <c r="B16" s="101" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="97" t="n">
+      <c r="B16" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="54" t="n">
         <v>176</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="75" t="s">
-        <v>415</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="H16" s="106"/>
+        <v>413</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="75"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="107"/>
-    </row>
-    <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
-      <c r="B17" s="101" t="s">
-        <v>416</v>
-      </c>
-      <c r="C17" s="97" t="n">
+      <c r="B17" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="54" t="n">
         <v>79</v>
       </c>
-      <c r="E17" s="105"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="75" t="s">
-        <v>417</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="H17" s="106"/>
+        <v>415</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="75"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" customFormat="false" ht="71.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
-      <c r="B18" s="101" t="s">
-        <v>419</v>
-      </c>
-      <c r="C18" s="97" t="n">
+      <c r="B18" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="54" t="n">
         <v>89</v>
       </c>
-      <c r="E18" s="105"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="G18" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="106"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="107"/>
-    </row>
-    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="44"/>
-      <c r="B19" s="101" t="s">
-        <v>421</v>
-      </c>
-      <c r="C19" s="97" t="n">
+      <c r="B19" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="54" t="n">
         <v>89</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="106"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="44"/>
-      <c r="B20" s="101" t="s">
-        <v>423</v>
-      </c>
-      <c r="C20" s="97" t="n">
+      <c r="B20" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="54" t="n">
         <v>830</v>
       </c>
-      <c r="E20" s="105"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="107"/>
-    </row>
-    <row r="21" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="44"/>
-      <c r="B21" s="101" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="97" t="n">
+      <c r="C21" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="54" t="n">
         <v>943</v>
       </c>
-      <c r="E21" s="105"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="102"/>
+    </row>
+    <row r="22" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="J21" s="107"/>
-    </row>
-    <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="44"/>
-      <c r="B22" s="101" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="97" t="n">
+      <c r="C22" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="54" t="n">
         <v>78</v>
       </c>
-      <c r="E22" s="105"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="75" t="s">
-        <v>430</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="106"/>
+        <v>427</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="75"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="107"/>
-    </row>
-    <row r="23" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="44"/>
-      <c r="B23" s="101" t="s">
-        <v>431</v>
-      </c>
-      <c r="C23" s="97" t="n">
+      <c r="B23" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="54" t="n">
@@ -14061,23 +14044,21 @@
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="75" t="s">
-        <v>432</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="J23" s="107"/>
+        <v>429</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="75"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="102"/>
     </row>
     <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="44"/>
-      <c r="B24" s="101" t="s">
-        <v>434</v>
-      </c>
-      <c r="C24" s="97" t="n">
+      <c r="B24" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="54" t="n">
@@ -14085,25 +14066,23 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="75" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="J24" s="107"/>
+        <v>431</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="75"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="102"/>
     </row>
     <row r="25" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="B25" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="108" t="n">
+        <v>432</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="56" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="54" t="n">
@@ -14111,19 +14090,21 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="75" t="s">
-        <v>439</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="106"/>
+        <v>434</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="75"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="107"/>
-    </row>
-    <row r="26" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="44"/>
-      <c r="B26" s="101" t="s">
-        <v>440</v>
-      </c>
-      <c r="C26" s="108" t="n">
+      <c r="B26" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="56" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="54" t="n">
@@ -14131,19 +14112,21 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="75" t="s">
-        <v>441</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="106"/>
+        <v>436</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="75"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="107"/>
-    </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44"/>
-      <c r="B27" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="C27" s="108" t="n">
+      <c r="B27" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="56" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="54" t="n">
@@ -14151,21 +14134,23 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="75" t="s">
-        <v>443</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="106"/>
+        <v>438</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="75"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="107"/>
+      <c r="J27" s="102"/>
     </row>
     <row r="28" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="C28" s="97" t="n">
+        <v>439</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="54" t="n">
@@ -14173,23 +14158,21 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="75" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="J28" s="107"/>
-    </row>
-    <row r="29" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="75"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="44"/>
-      <c r="B29" s="101" t="s">
-        <v>448</v>
-      </c>
-      <c r="C29" s="97" t="n">
+      <c r="B29" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="54" t="n">
@@ -14197,21 +14180,21 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="75" t="s">
-        <v>449</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="106"/>
+        <v>443</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="75"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="107"/>
+      <c r="J29" s="102"/>
     </row>
     <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44"/>
-      <c r="B30" s="101" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" s="97" t="n">
+      <c r="B30" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" s="53" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="54" t="n">
@@ -14219,21 +14202,21 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="75" t="s">
-        <v>451</v>
-      </c>
-      <c r="G30" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="106"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="107"/>
+      <c r="J30" s="102"/>
     </row>
     <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44"/>
-      <c r="B31" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="C31" s="109" t="n">
+      <c r="B31" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C31" s="103" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="58" t="n">
@@ -14241,14 +14224,14 @@
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="110"/>
+        <v>447</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="83"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="111"/>
+      <c r="J31" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14258,6 +14241,12 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A31"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G31" type="list">
+      <formula1>"Valid,Non-valid,Not Applicable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -14275,8 +14264,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14296,7 +14285,7 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -14308,38 +14297,38 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="112" t="n">
+        <v>448</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="107" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="47" t="n">
         <v>311</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>13</v>
@@ -14350,18 +14339,18 @@
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="108" t="n">
+      <c r="B3" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="54" t="n">
         <v>311</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>13</v>
@@ -14372,18 +14361,18 @@
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="108" t="n">
+      <c r="C4" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="54" t="n">
         <v>311</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
@@ -14394,10 +14383,10 @@
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>461</v>
+        <v>454</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>455</v>
       </c>
       <c r="C5" s="97" t="n">
         <v>1</v>
@@ -14405,33 +14394,33 @@
       <c r="D5" s="54" t="n">
         <v>310</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="19" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>464</v>
-      </c>
-      <c r="C6" s="108" t="n">
+      <c r="B6" s="106" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="54" t="n">
         <v>327</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
@@ -14442,18 +14431,18 @@
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="C7" s="108" t="n">
+      <c r="B7" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="54" t="n">
         <v>326</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
@@ -14464,18 +14453,18 @@
     </row>
     <row r="8" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44"/>
-      <c r="B8" s="101" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="108" t="n">
+      <c r="B8" s="106" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="54" t="n">
         <v>326</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
@@ -14486,18 +14475,18 @@
     </row>
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="108" t="n">
+      <c r="B9" s="106" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="54" t="n">
         <v>326</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
@@ -14508,18 +14497,18 @@
     </row>
     <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>472</v>
-      </c>
-      <c r="C10" s="108" t="n">
+      <c r="B10" s="106" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="54" t="n">
         <v>326</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="75" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
@@ -14530,18 +14519,18 @@
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
-      <c r="B11" s="101" t="s">
-        <v>474</v>
-      </c>
-      <c r="C11" s="113" t="n">
+      <c r="B11" s="106" t="s">
+        <v>468</v>
+      </c>
+      <c r="C11" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="54" t="n">
         <v>326</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="75" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
@@ -14552,18 +14541,18 @@
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
-      <c r="B12" s="101" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="113" t="n">
+      <c r="B12" s="106" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D12" s="54" t="n">
         <v>385</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="75" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
@@ -14574,12 +14563,12 @@
     </row>
     <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="B13" s="101" t="s">
-        <v>479</v>
-      </c>
-      <c r="C13" s="108" t="n">
+        <v>472</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="54" t="n">
@@ -14587,7 +14576,7 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="75" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
@@ -14598,10 +14587,10 @@
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
-      <c r="B14" s="101" t="s">
-        <v>481</v>
-      </c>
-      <c r="C14" s="108" t="n">
+      <c r="B14" s="106" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="54" t="n">
@@ -14609,7 +14598,7 @@
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="75" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
@@ -14620,10 +14609,10 @@
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
-      <c r="B15" s="101" t="s">
-        <v>483</v>
-      </c>
-      <c r="C15" s="113" t="n">
+      <c r="B15" s="106" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="54" t="n">
@@ -14631,7 +14620,7 @@
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="75" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
@@ -14642,12 +14631,12 @@
     </row>
     <row r="16" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>486</v>
-      </c>
-      <c r="C16" s="108" t="n">
+        <v>479</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="54" t="n">
@@ -14655,7 +14644,7 @@
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="75" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
@@ -14666,8 +14655,8 @@
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
-      <c r="B17" s="101" t="s">
-        <v>488</v>
+      <c r="B17" s="106" t="s">
+        <v>482</v>
       </c>
       <c r="C17" s="98" t="n">
         <v>2</v>
@@ -14677,7 +14666,7 @@
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="83" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>13</v>
@@ -14716,7 +14705,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -14733,64 +14722,64 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="114" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="117" t="n">
+      <c r="C2" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="118" t="n">
+      <c r="D2" s="116" t="n">
         <v>532</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119" t="s">
-        <v>491</v>
-      </c>
-      <c r="G2" s="120" t="s">
+      <c r="E2" s="116"/>
+      <c r="F2" s="117" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="121" t="s">
-        <v>492</v>
-      </c>
-      <c r="I2" s="121" t="s">
-        <v>493</v>
-      </c>
-      <c r="J2" s="122"/>
+      <c r="H2" s="119" t="s">
+        <v>486</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
@@ -14805,21 +14794,21 @@
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="75" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>163</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="76" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
       <c r="B4" s="45" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C4" s="56" t="n">
         <v>2</v>
@@ -14829,7 +14818,7 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="75" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>13</v>
@@ -14841,7 +14830,7 @@
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
       <c r="B5" s="45" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C5" s="56" t="n">
         <v>2</v>
@@ -14851,7 +14840,7 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="75" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
@@ -14862,7 +14851,7 @@
     </row>
     <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>348</v>
@@ -14875,7 +14864,7 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="75" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
@@ -14887,7 +14876,7 @@
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C7" s="56" t="n">
         <v>2</v>
@@ -14897,7 +14886,7 @@
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="75" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>13</v>
@@ -14908,10 +14897,10 @@
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C8" s="56" t="n">
         <v>2</v>
@@ -14921,7 +14910,7 @@
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="75" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>13</v>
@@ -14933,7 +14922,7 @@
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="45" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C9" s="56" t="n">
         <v>2</v>
@@ -14943,7 +14932,7 @@
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="75" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -14955,7 +14944,7 @@
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
       <c r="B10" s="45" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C10" s="56" t="n">
         <v>2</v>
@@ -14965,7 +14954,7 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="75" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -14977,7 +14966,7 @@
     <row r="11" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C11" s="56" t="n">
         <v>2</v>
@@ -14985,7 +14974,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="75" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
@@ -14996,10 +14985,10 @@
     </row>
     <row r="12" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C12" s="53" t="n">
         <v>1</v>
@@ -15009,21 +14998,21 @@
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="75" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>163</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="76" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
       <c r="B13" s="45" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C13" s="56" t="n">
         <v>2</v>
@@ -15033,7 +15022,7 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="75" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
@@ -15045,7 +15034,7 @@
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
       <c r="B14" s="45" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C14" s="57" t="n">
         <v>2</v>
@@ -15055,7 +15044,7 @@
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="83" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G14" s="84" t="s">
         <v>13</v>
@@ -15094,7 +15083,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -15112,10 +15101,10 @@
   </cols>
   <sheetData>
     <row r="1" s="43" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="100" t="s">
@@ -15127,38 +15116,38 @@
       <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="105" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" s="112" t="n">
+        <v>515</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="107" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="48" t="n">
         <v>524</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="69" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G2" s="50" t="s">
         <v>13</v>
@@ -15169,18 +15158,18 @@
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44"/>
-      <c r="B3" s="101" t="s">
-        <v>524</v>
-      </c>
-      <c r="C3" s="108" t="n">
+      <c r="B3" s="106" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="16" t="n">
         <v>524</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="75" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>13</v>
@@ -15191,18 +15180,18 @@
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44"/>
-      <c r="B4" s="101" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="108" t="n">
+      <c r="B4" s="106" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="16" t="n">
         <v>233</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="75" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>13</v>
@@ -15213,18 +15202,18 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="44"/>
-      <c r="B5" s="101" t="s">
-        <v>528</v>
-      </c>
-      <c r="C5" s="108" t="n">
+      <c r="B5" s="106" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>770</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="75" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>13</v>
@@ -15235,18 +15224,18 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
-      <c r="B6" s="101" t="s">
-        <v>530</v>
-      </c>
-      <c r="C6" s="113" t="n">
+      <c r="B6" s="106" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="105"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="75" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>13</v>
@@ -15257,18 +15246,18 @@
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44"/>
-      <c r="B7" s="101" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" s="113" t="n">
+      <c r="B7" s="106" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" s="111" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="75" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>13</v>
@@ -15279,10 +15268,10 @@
     </row>
     <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>535</v>
+        <v>528</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>529</v>
       </c>
       <c r="C8" s="97" t="n">
         <v>1</v>
@@ -15290,25 +15279,25 @@
       <c r="D8" s="16" t="n">
         <v>525</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="75" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
-      <c r="B9" s="101" t="s">
-        <v>539</v>
+      <c r="B9" s="106" t="s">
+        <v>533</v>
       </c>
       <c r="C9" s="97" t="n">
         <v>1</v>
@@ -15316,25 +15305,25 @@
       <c r="D9" s="16" t="n">
         <v>922</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="75" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44"/>
-      <c r="B10" s="101" t="s">
-        <v>542</v>
+      <c r="B10" s="106" t="s">
+        <v>536</v>
       </c>
       <c r="C10" s="97" t="n">
         <v>1</v>
@@ -15342,26 +15331,26 @@
       <c r="D10" s="16" t="n">
         <v>922</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="75" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>545</v>
+        <v>538</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>539</v>
       </c>
       <c r="C11" s="97" t="n">
         <v>1</v>
@@ -15369,25 +15358,25 @@
       <c r="D11" s="16" t="n">
         <v>319</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="75" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="44"/>
-      <c r="B12" s="101" t="s">
-        <v>547</v>
+      <c r="B12" s="106" t="s">
+        <v>541</v>
       </c>
       <c r="C12" s="97" t="n">
         <v>1</v>
@@ -15395,9 +15384,9 @@
       <c r="D12" s="16" t="n">
         <v>212</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="75" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>163</v>
@@ -15412,8 +15401,8 @@
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="44"/>
-      <c r="B13" s="101" t="s">
-        <v>549</v>
+      <c r="B13" s="106" t="s">
+        <v>543</v>
       </c>
       <c r="C13" s="97" t="n">
         <v>1</v>
@@ -15421,23 +15410,23 @@
       <c r="D13" s="16" t="n">
         <v>285</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="75" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="44"/>
-      <c r="B14" s="101" t="s">
-        <v>552</v>
+      <c r="B14" s="106" t="s">
+        <v>546</v>
       </c>
       <c r="C14" s="97" t="n">
         <v>1</v>
@@ -15445,33 +15434,33 @@
       <c r="D14" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="75" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="44"/>
-      <c r="B15" s="101" t="s">
-        <v>554</v>
-      </c>
-      <c r="C15" s="108" t="n">
+      <c r="B15" s="106" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="n">
         <v>532</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="75" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
@@ -15482,10 +15471,10 @@
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
-      <c r="B16" s="101" t="s">
-        <v>556</v>
-      </c>
-      <c r="C16" s="108" t="n">
+      <c r="B16" s="106" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="16" t="n">
@@ -15493,7 +15482,7 @@
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="75" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
@@ -15504,10 +15493,10 @@
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
-      <c r="B17" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="C17" s="108" t="n">
+      <c r="B17" s="106" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="109" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="16" t="n">
@@ -15515,7 +15504,7 @@
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="75" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>13</v>
@@ -15526,8 +15515,8 @@
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="44"/>
-      <c r="B18" s="101" t="s">
-        <v>560</v>
+      <c r="B18" s="106" t="s">
+        <v>554</v>
       </c>
       <c r="C18" s="98" t="n">
         <v>2</v>
@@ -15537,7 +15526,7 @@
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="83" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>13</v>

--- a/analysis/checklist_app_sec.xlsx
+++ b/analysis/checklist_app_sec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture" sheetId="1" state="visible" r:id="rId3"/>
@@ -4019,13 +4019,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="30417430"/>
-        <c:axId val="60947789"/>
+        <c:axId val="51102087"/>
+        <c:axId val="10914346"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="30417430"/>
+        <c:axId val="51102087"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4063,7 +4063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60947789"/>
+        <c:crossAx val="10914346"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60947789"/>
+        <c:axId val="10914346"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30417430"/>
+        <c:crossAx val="51102087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4178,9 +4178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4189,7 +4189,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13680" y="4572720"/>
-        <a:ext cx="10967400" cy="9331920"/>
+        <a:ext cx="10967040" cy="9331560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4315,7 +4315,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -6352,7 +6352,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6615,7 +6615,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -6918,8 +6918,8 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7127,7 +7127,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44"/>
       <c r="B9" s="106" t="s">
         <v>615</v>
@@ -7142,7 +7142,7 @@
       <c r="F9" s="83" t="s">
         <v>616</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="24"/>
@@ -7176,7 +7176,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -7597,7 +7597,7 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8021,7 +8021,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8679,7 +8679,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -10019,8 +10019,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12554,7 +12554,7 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -13192,7 +13192,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -13510,7 +13510,7 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -14264,8 +14264,8 @@
   </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14705,7 +14705,7 @@
   </sheetPr>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -15083,7 +15083,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/analysis/checklist_app_sec.xlsx
+++ b/analysis/checklist_app_sec.xlsx
@@ -939,7 +939,7 @@
     <t xml:space="preserve">Verify the application only stores session tokens in the browser using secure methods such as appropriately secured cookies (see section 3.4) or HTML 5 session storage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Can be implemented with Flask’s built-in session management capabilities</t>
+    <t xml:space="preserve">Can be implemented with Flask’s built-in session management capabilities, also solves 3.4 section</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.4</t>
@@ -4019,13 +4019,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51102087"/>
-        <c:axId val="10914346"/>
+        <c:axId val="14882486"/>
+        <c:axId val="36329381"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="51102087"/>
+        <c:axId val="14882486"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4063,7 +4063,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10914346"/>
+        <c:crossAx val="36329381"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10914346"/>
+        <c:axId val="36329381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51102087"/>
+        <c:crossAx val="14882486"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4178,9 +4178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4189,7 +4189,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13680" y="4572720"/>
-        <a:ext cx="10967040" cy="9331560"/>
+        <a:ext cx="10966680" cy="9331200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7598,7 +7598,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7969,7 +7969,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="44"/>
       <c r="B16" s="106" t="s">
         <v>687</v>
@@ -7984,7 +7984,7 @@
       <c r="F16" s="83" t="s">
         <v>688</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="24"/>
@@ -8022,7 +8022,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10019,7 +10019,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -12554,8 +12554,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
